--- a/main/resources/financial-transaction.xlsx
+++ b/main/resources/financial-transaction.xlsx
@@ -1360,7 +1360,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="6"/>
@@ -1371,222 +1371,209 @@
     <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="14.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="12.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="10.8571428571429"/>
-    <col min="17" max="17" width="8.85714285714286" customWidth="1"/>
-    <col min="18" max="18" width="10.8571428571429" customWidth="1"/>
+    <col min="7" max="8" width="10.8571428571429"/>
+    <col min="17" max="18" width="10.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="1:18">
-      <c r="A1" s="1">
+    <row r="1" ht="38.25" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:18">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" ht="38.25" spans="1:17">
+      <c r="A2" s="2">
         <v>1001</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3">
+      <c r="G2" s="3">
         <v>45964</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>502</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="3" ht="38.25" spans="1:17">
+      <c r="A3" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45966</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="4" ht="38.25" spans="1:17">
+      <c r="A4" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45967</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="2">
-        <v>502</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="3">
-        <v>45965</v>
-      </c>
-    </row>
-    <row r="3" ht="38.25" spans="1:18">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3">
-        <v>45966</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2">
-        <v>35</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="3">
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="4" ht="38.25" spans="1:18">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1003</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3">
-        <v>45967</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="3">
+      <c r="Q4" s="3">
         <v>45967</v>
       </c>
     </row>
